--- a/Canal/Canal/hidrograms.xlsx
+++ b/Canal/Canal/hidrograms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14115" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14115" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sim1" sheetId="1" r:id="rId1"/>
@@ -6547,11 +6547,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="645092864"/>
-        <c:axId val="143328384"/>
+        <c:axId val="127333888"/>
+        <c:axId val="135740736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="645092864"/>
+        <c:axId val="127333888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6585,7 +6585,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143328384"/>
+        <c:crossAx val="135740736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6593,7 +6593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143328384"/>
+        <c:axId val="135740736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6623,7 +6623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="645092864"/>
+        <c:crossAx val="127333888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6670,7 +6670,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12619,11 +12618,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="645046784"/>
-        <c:axId val="143332416"/>
+        <c:axId val="138063872"/>
+        <c:axId val="10690560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="645046784"/>
+        <c:axId val="138063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12650,14 +12649,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143332416"/>
+        <c:crossAx val="10690560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12665,7 +12663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143332416"/>
+        <c:axId val="10690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12688,14 +12686,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="645046784"/>
+        <c:crossAx val="138063872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12752,7 +12749,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -12768,6 +12765,3942 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sim3'!$A$2:$A$1310</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1309"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4410000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9090000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.276</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.744</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.478</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.845000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.212</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.047000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.414</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.148</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.882000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.248999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.084</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.818000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.552</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.919</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.387</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22.754000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.120999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23.488</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23.855</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.956</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.323</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.69</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26.791</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27.524999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.891999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.259</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28.626000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.992999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.36</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.727</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31.195</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>31.562000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.295999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>33.764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>34.131</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34.497999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>34.865000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>37.067</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37.433999999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>38.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>38.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>38.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39.268999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39.636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40.003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42.572000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42.939</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43.673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44.04</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44.406999999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45.508000000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>45.875</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>46.241999999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>46.609000000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>46.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>47.343000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>47.71</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>48.076999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>48.444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>48.811</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>49.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>49.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>49.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>50.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>50.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>51.012999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>51.38</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51.747</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>52.113999999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>52.481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>52.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>53.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>53.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>53.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>54.316000000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>54.683</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>55.05</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>55.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>55.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>56.151000000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>56.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>56.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>57.252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57.619</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>58.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>58.72</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>59.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>59.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>59.820999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>60.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>60.555</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>60.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>61.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>61.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>62.023000000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>62.39</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>62.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>63.124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>63.491</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>63.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>64.224999999999994</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>64.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>64.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>65.325999999999993</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.692999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>66.06</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>66.427000000000007</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>66.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>67.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>67.528000000000006</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>67.894999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>68.262</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>68.629000000000005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>68.995999999999995</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>69.363</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>69.73</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>70.096999999999994</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>70.463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>70.831000000000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>71.197999999999993</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>71.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>71.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>72.299000000000007</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>72.665999999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>73.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>73.766999999999996</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>74.134</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>74.501000000000005</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>74.867999999999995</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>75.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>75.602000000000004</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>75.968999999999994</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>76.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>76.703000000000003</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>77.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>77.436999999999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>77.804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>78.171000000000006</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>78.537999999999997</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>78.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>79.272000000000006</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>79.638999999999996</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>80.006</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>80.373000000000005</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>80.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>81.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>81.474000000000004</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>81.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>82.207999999999998</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>82.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>82.941999999999993</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>83.308999999999997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>83.676000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>84.043000000000006</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>84.41</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>84.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>85.144000000000005</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>85.510999999999996</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>85.878</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>86.245000000000005</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>86.611999999999995</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>86.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>87.346000000000004</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>87.712999999999994</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>88.08</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>88.447000000000003</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>88.813999999999993</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>89.180999999999997</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>89.548000000000002</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>89.915000000000006</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>90.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>90.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>91.016000000000005</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>91.382999999999996</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>92.117000000000004</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>92.483999999999995</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>92.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>93.218000000000004</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>93.584999999999994</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>93.951999999999998</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>94.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>94.686000000000007</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>95.052999999999997</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>95.42</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>95.787000000000006</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>96.153999999999996</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>96.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>96.888000000000005</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>97.254999999999995</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>97.622</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>97.989000000000004</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>98.355999999999995</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>98.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>99.456999999999994</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>99.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>100.191</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>100.55800000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>100.925</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>101.292</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>101.65900000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>102.026</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>102.393</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>102.76</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>103.127</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>103.494</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>103.861</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>104.22799999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>104.595</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>104.962</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>105.32899999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>105.696</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>106.063</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>106.43</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>106.797</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>107.164</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>107.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>107.898</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>108.265</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>108.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>108.999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>109.366</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>109.733</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>110.1</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>110.467</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>110.834</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>111.20099999999999</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>111.568</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>111.935</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>112.30200000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>112.669</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>113.036</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>113.40300000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>113.77</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>114.137</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>114.504</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>114.871</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>115.238</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>115.605</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>115.97199999999999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>116.339</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>116.706</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>117.07299999999999</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>117.44</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>117.807</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>118.17400000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>118.541</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>118.908</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>119.27500000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>119.642</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>120.009</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>120.376</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>120.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>121.11</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>121.477</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>121.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>122.211</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>122.578</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>122.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>123.312</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>123.679</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>124.04600000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>124.413</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>124.78</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>125.14700000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>125.514</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>125.881</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>126.248</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>126.61499999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>126.982</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>127.349</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>127.71599999999999</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>128.083</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>128.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>128.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>129.184</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>129.55099999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>129.91800000000001</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>130.285</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>130.65199999999999</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>131.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>131.386</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>131.75299999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>132.12</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>132.48699999999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>132.85400000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>133.221</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>133.58799999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>133.95500000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>134.322</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>134.68899999999999</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>135.05600000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>135.423</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>135.79</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>136.15700000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>136.524</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>136.89099999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>137.25800000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>137.625</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>137.99199999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>138.35900000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>138.726</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>139.09299999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>139.46</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>139.827</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>140.19399999999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>140.56100000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>140.928</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>141.29499999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>141.66200000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>142.029</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>142.39599999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>142.76300000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>143.13</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>143.49700000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>143.864</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>144.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>144.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>144.965</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>145.33199999999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>145.69900000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>146.066</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>146.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>146.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>147.167</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>147.53399999999999</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>147.90100000000001</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>148.268</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>148.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>149.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>149.369</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>149.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>150.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>150.47</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>150.83699999999999</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>151.20400000000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>151.571</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>151.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>152.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>152.672</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>153.03899999999999</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>153.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>153.773</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>154.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>154.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>154.874</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>155.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>155.608</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>155.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>156.34200000000001</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>156.709</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>157.07599999999999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>157.44300000000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>157.81</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>158.17699999999999</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>158.54400000000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>158.911</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>159.27799999999999</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>159.64500000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>160.012</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>160.37899999999999</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>160.74600000000001</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>161.113</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>161.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>161.84700000000001</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>162.214</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>162.58099999999999</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>162.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>163.315</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>163.68199999999999</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>164.04900000000001</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>164.416</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>164.78299999999999</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>165.15</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>165.517</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>165.88399999999999</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>166.251</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>166.61799999999999</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>166.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>167.352</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>167.71899999999999</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>168.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>168.453</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>168.82</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>169.18700000000001</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>169.554</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>169.92099999999999</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>170.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>170.655</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>171.02199999999999</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>171.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>171.756</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>172.12299999999999</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>172.49</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>172.857</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>173.22399999999999</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>173.59100000000001</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>173.958</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>174.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>174.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>175.059</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>175.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>175.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>176.16</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>176.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>176.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>177.261</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>177.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>177.995</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>178.36199999999999</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>178.72900000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>179.096</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>179.46299999999999</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>179.83</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>180.197</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>180.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>180.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>181.298</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>181.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>182.03200000000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>182.399</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>182.76599999999999</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>183.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>183.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>184.23400000000001</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>184.601</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>184.96799999999999</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>185.33500000000001</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>185.702</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>186.06899999999999</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>186.43600000000001</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>186.803</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>187.17</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>187.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>187.904</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>188.27099999999999</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>188.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>189.005</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>189.37200000000001</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>189.739</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>190.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>190.47300000000001</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>190.84</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>191.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>191.57400000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>191.941</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>192.30799999999999</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>192.67500000000001</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>193.042</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>193.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>193.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>194.143</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>194.51</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>194.87700000000001</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>195.244</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>195.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>195.97800000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>196.345</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>196.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>197.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>197.446</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>197.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>198.18</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>198.547</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>198.91399999999999</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>199.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>199.648</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>200.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>200.38200000000001</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>200.749</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>201.11600000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>201.483</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>201.85</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>202.21700000000001</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>202.584</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>202.95099999999999</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>203.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>203.685</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>204.05199999999999</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>204.41900000000001</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>204.786</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>205.15299999999999</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>205.52</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>205.887</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>206.25399999999999</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>206.62100000000001</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>206.988</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>207.35499999999999</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>207.72200000000001</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>208.089</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>208.45599999999999</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>208.82300000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>209.19</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>209.55699999999999</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>209.92400000000001</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>210.291</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>210.65799999999999</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>211.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>211.392</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>211.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>212.126</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>212.49299999999999</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>212.86</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>213.227</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>213.59399999999999</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>213.96100000000001</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>214.328</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>214.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>215.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>215.429</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>215.79599999999999</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>216.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>216.53</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>216.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>217.26400000000001</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>217.631</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>217.99799999999999</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>218.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>218.732</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>219.09899999999999</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>219.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>219.833</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>220.2</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>220.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>220.934</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>221.30099999999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>221.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>222.035</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>222.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>222.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>223.136</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>223.50299999999999</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>223.87</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>224.23699999999999</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>224.60400000000001</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>224.971</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>225.33799999999999</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>225.70500000000001</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>226.072</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>226.43899999999999</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>226.80600000000001</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>227.173</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>227.54</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>227.90700000000001</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>228.274</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>228.64099999999999</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>229.00800000000001</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>229.375</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>229.74199999999999</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>230.10900000000001</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>230.476</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>230.84299999999999</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>231.21</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>231.577</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>231.94399999999999</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>232.31100000000001</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>232.678</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>233.04499999999999</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>233.41200000000001</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>233.779</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>234.14599999999999</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>234.51300000000001</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>234.88</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>235.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>235.614</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>235.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>236.34800000000001</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>236.715</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>237.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>237.44900000000001</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>237.816</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>238.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>238.55</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>238.917</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>239.28399999999999</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>239.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>240.018</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>240.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>240.75200000000001</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>241.119</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>241.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>241.85300000000001</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>242.22</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>242.58699999999999</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>242.95400000000001</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>243.321</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>243.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>244.05500000000001</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>244.422</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>244.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>245.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>245.523</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>245.89</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>246.25700000000001</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>246.624</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>246.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>247.358</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>247.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>248.09200000000001</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>248.459</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>248.82599999999999</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>249.19300000000001</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>249.56</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>249.92699999999999</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>250.29400000000001</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>250.661</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>251.02799999999999</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>251.39500000000001</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>251.762</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>252.12899999999999</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>252.49600000000001</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>252.863</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>253.23</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>253.59700000000001</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>253.964</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>254.33099999999999</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>254.69800000000001</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>255.065</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>255.43199999999999</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>255.79900000000001</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>256.166</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>256.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>256.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>257.267</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>257.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>258.00099999999998</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>258.36799999999999</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>258.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>259.10199999999998</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>259.46899999999999</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>259.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>260.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>260.57</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>260.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>261.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>261.67099999999999</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>262.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>262.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>262.77199999999999</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>263.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>263.50599999999997</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>263.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>264.24</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>264.60700000000003</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>264.97399999999999</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>265.34100000000001</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>265.70800000000003</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>266.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>266.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>266.80900000000003</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>267.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>267.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>267.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>268.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>268.64400000000001</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>269.01100000000002</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>269.37799999999999</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>269.745</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>270.11200000000002</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>270.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>270.846</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>271.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>271.58</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>271.947</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>272.31400000000002</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>272.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>273.048</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>273.41500000000002</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>273.78199999999998</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>274.149</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>274.51600000000002</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>274.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>275.25</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>275.61700000000002</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>275.98399999999998</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>276.351</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>276.71800000000002</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>277.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>277.452</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>277.81900000000002</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>278.18599999999998</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>278.553</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>278.92</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>279.28699999999998</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>279.654</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>280.02100000000002</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>280.38799999999998</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>280.755</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>281.12200000000001</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>281.48899999999998</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>281.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>282.22300000000001</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>282.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>282.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>283.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>283.69099999999997</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>284.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>284.42500000000001</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>284.79199999999997</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>285.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>285.52600000000001</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>285.89299999999997</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>286.26</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>286.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>286.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>287.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>287.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>288.09500000000003</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>288.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>288.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>289.19600000000003</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>289.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>289.93</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>290.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>290.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>291.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>291.39800000000002</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>291.76499999999999</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>292.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>292.49900000000002</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>292.86599999999999</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>293.233</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>293.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>293.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>294.334</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>294.70100000000002</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>295.06799999999998</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>295.435</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>295.80200000000002</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>296.16899999999998</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>296.536</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>296.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>297.27</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>297.637</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>298.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>298.37099999999998</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>298.738</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>299.10500000000002</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>299.47199999999998</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>299.839</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>300.20600000000002</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>300.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>300.94</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>301.30700000000002</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>301.67399999999998</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>302.041</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>302.40800000000002</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>302.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>303.142</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>303.50900000000001</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>303.87599999999998</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>304.24299999999999</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>304.61</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>304.97699999999998</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>305.34399999999999</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>305.71100000000001</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>306.07799999999997</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>306.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>306.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>307.17899999999997</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>307.54599999999999</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>307.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>308.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>308.64699999999999</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>309.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>309.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>309.74799999999999</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>310.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>310.48200000000003</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>310.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>311.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>311.58300000000003</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>311.95</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>312.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>312.68400000000003</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>313.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>313.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>313.78500000000003</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>314.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>314.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>314.88600000000002</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>315.25299999999999</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>315.62</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>315.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>316.35399999999998</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>316.721</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>317.08800000000002</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>317.45499999999998</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>317.822</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>318.18900000000002</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>318.55599999999998</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>318.923</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>319.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>319.65699999999998</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>320.024</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>320.39100000000002</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>320.75799999999998</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>321.125</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>321.49200000000002</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>321.85899999999998</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>322.226</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>322.59300000000002</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>322.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>323.327</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>323.69400000000002</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>324.06099999999998</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>324.428</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>324.79500000000002</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>325.16199999999998</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>325.529</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>325.89600000000002</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>326.26299999999998</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>326.63</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>326.99700000000001</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>327.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>327.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>328.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>328.46499999999997</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>328.83199999999999</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>329.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>329.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>329.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>330.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>331.03399999999999</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>331.40100000000001</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>331.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>332.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>332.50200000000001</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>332.86900000000003</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>333.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>333.60300000000001</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>333.97</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>334.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>334.70400000000001</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>335.07100000000003</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>335.43799999999999</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>335.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>336.17200000000003</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>336.53899999999999</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>336.90600000000001</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>337.27300000000002</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>337.64</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>338.00700000000001</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>338.37400000000002</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>338.74099999999999</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>339.108</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>339.47500000000002</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>339.84199999999998</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>340.209</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>340.57600000000002</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>340.94299999999998</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>341.31</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>341.67700000000002</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>342.04399999999998</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>342.411</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>342.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>343.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>343.512</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>343.87900000000002</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>344.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>344.613</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>344.98</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>345.34699999999998</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>345.714</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>346.08100000000002</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>346.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>346.815</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>347.18200000000002</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>347.54899999999998</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>347.916</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>348.28300000000002</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>348.65</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>349.017</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>349.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>349.75099999999998</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>350.11799999999999</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>350.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>350.85199999999998</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>351.21899999999999</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>351.58600000000001</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>351.95299999999997</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>352.32</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>352.68700000000001</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>353.05399999999997</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>353.42099999999999</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>353.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>354.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>354.52199999999999</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>354.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>355.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>355.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>355.99</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>356.35700000000003</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>356.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>357.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>357.45800000000003</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>357.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>358.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>358.55900000000003</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>358.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>359.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>359.66</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>360.02699999999999</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>360.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>360.76100000000002</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>361.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>361.495</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>361.86200000000002</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>362.22899999999998</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>362.596</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>362.96300000000002</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>363.33</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>363.697</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>364.06400000000002</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>364.43099999999998</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>364.798</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>365.16500000000002</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>365.53199999999998</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>365.899</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>366.26600000000002</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>366.63299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>367.36700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>367.73399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>368.101</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>368.46800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>368.83499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>369.202</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>369.56900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>369.93599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>370.303</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>370.67</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>371.03699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>371.404</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>371.77100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>372.13799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>372.505</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>372.87200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>373.23899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>373.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>373.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>374.34</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>374.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>375.07400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>375.44099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>375.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>376.17500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>376.54199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>376.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>377.27600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>377.64299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>378.01</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>378.37700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>378.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>379.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>379.47800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>379.84500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>380.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>380.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>380.94600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>381.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>381.68</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>382.04700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>382.41399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>382.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>383.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>383.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>383.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>384.24900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>384.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>384.983</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>385.35</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>385.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>386.084</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>386.45100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>386.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>387.185</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>387.55200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>387.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>388.286</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>388.65300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>389.02</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>389.387</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>389.75400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>390.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>390.488</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>390.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>391.22199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>391.589</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>391.95600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>392.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>392.69</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>393.05700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>393.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>393.791</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>394.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>394.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>394.892</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>395.25900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>395.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>395.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>396.36</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>396.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>397.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>397.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>397.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>398.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>398.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>398.92899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>399.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>399.66300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>400.03</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>400.39699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>400.76400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>401.13099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>401.49799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>401.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>402.23200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>402.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>402.96600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>403.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>403.7</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>404.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>404.43400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>404.80099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>405.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>405.53500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>405.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>406.26900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>406.63600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>407.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>407.37</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>407.73700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>408.10399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>408.471</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>408.83800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>409.20499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>409.572</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>409.93900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>410.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>410.673</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>411.04</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>411.40699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>411.774</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>412.14100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>412.50799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>412.875</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>413.24200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>413.60899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>413.976</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>414.34300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>414.71</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>415.077</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>415.44400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>415.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>416.178</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>416.54500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>416.91199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>417.279</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>417.64600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>418.01299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>418.38</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>418.74700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>419.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>419.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>419.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>420.21499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>420.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>420.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>421.31599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>421.68299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>422.05</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>422.41699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>422.78399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>423.15100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>423.51799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>423.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>424.25200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>424.61900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>424.98599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>425.35300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>425.72</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>426.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>426.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>426.82100000000003</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>427.18799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>427.55500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>427.92200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>428.28899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>428.65600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>429.02300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>429.39</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>429.75700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>430.12400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>430.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>430.858</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>431.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>431.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>431.959</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>432.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>432.69299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>433.06</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>433.42700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>433.79399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>434.161</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>434.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>434.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>435.262</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>435.62900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>435.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>436.363</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>436.73</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>437.09699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>437.464</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>437.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>438.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>438.565</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>438.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>439.29899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>439.666</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>440.03300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>440.4</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>440.767</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>441.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>441.50099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>441.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>442.23500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>442.60199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>442.96899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>443.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>443.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>444.07</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>444.43700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>444.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>445.17099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>445.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>445.90499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>446.27199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>446.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>447.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>447.37299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>447.74</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>448.10700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>448.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>448.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>449.20800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>449.57499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>449.94200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>450.30900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>450.67599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>451.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>451.41</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>451.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>452.14400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>452.51100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>452.87799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>453.245</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>453.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>453.97899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>454.346</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>454.71300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>455.08</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>455.447</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>455.81400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>456.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>456.548</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>456.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>457.28199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>457.649</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>458.01600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>458.38299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>458.75</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>459.11700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>459.48399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>459.851</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>460.21800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>460.58499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>460.952</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>461.31900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>461.68599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>462.053</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>462.42</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>462.78699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>463.154</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>463.52100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>463.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>464.255</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>464.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>464.98899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>465.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>465.72300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>466.09</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>466.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>466.82400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>467.19099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>467.55799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>467.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>468.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>468.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>469.02600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>469.39299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>469.76</c:v>
+                </c:pt>
+                <c:pt idx="1281">
+                  <c:v>470.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1282">
+                  <c:v>470.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1283">
+                  <c:v>470.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1284">
+                  <c:v>471.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1285">
+                  <c:v>471.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1286">
+                  <c:v>471.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1287">
+                  <c:v>472.32900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1288">
+                  <c:v>472.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1289">
+                  <c:v>473.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1290">
+                  <c:v>473.43</c:v>
+                </c:pt>
+                <c:pt idx="1291">
+                  <c:v>473.79700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1292">
+                  <c:v>474.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1293">
+                  <c:v>474.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1294">
+                  <c:v>474.89800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1295">
+                  <c:v>475.26499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1296">
+                  <c:v>475.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1297">
+                  <c:v>475.99900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1298">
+                  <c:v>476.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1299">
+                  <c:v>476.733</c:v>
+                </c:pt>
+                <c:pt idx="1300">
+                  <c:v>477.1</c:v>
+                </c:pt>
+                <c:pt idx="1301">
+                  <c:v>477.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1302">
+                  <c:v>477.834</c:v>
+                </c:pt>
+                <c:pt idx="1303">
+                  <c:v>478.20100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1304">
+                  <c:v>478.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1305">
+                  <c:v>478.935</c:v>
+                </c:pt>
+                <c:pt idx="1306">
+                  <c:v>479.30200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1307">
+                  <c:v>479.66899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1308">
+                  <c:v>480.036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'sim3'!$B$2:$B$1310</c:f>
@@ -16717,11 +20650,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="645048320"/>
-        <c:axId val="143334144"/>
+        <c:axId val="138065920"/>
+        <c:axId val="10692288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="645048320"/>
+        <c:axId val="138065920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16755,7 +20688,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143334144"/>
+        <c:crossAx val="10692288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16763,7 +20696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143334144"/>
+        <c:axId val="10692288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16793,7 +20726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="645048320"/>
+        <c:crossAx val="138065920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16866,6 +20799,3942 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sim4'!$A$2:$A$1310</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1309"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4410000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9090000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.276</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.744</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.478</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.845000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.212</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.047000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.414</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.148</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.882000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.248999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.084</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.818000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.552</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.919</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.387</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22.754000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23.120999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23.488</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23.855</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.956</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.323</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.69</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26.791</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27.524999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.891999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.259</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28.626000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.992999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.36</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.727</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31.195</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>31.562000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.295999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>33.764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>34.131</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34.497999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>34.865000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>37.067</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37.433999999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>38.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>38.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>38.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39.268999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39.636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40.003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42.572000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42.939</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43.673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44.04</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44.406999999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45.508000000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>45.875</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>46.241999999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>46.609000000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>46.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>47.343000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>47.71</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>48.076999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>48.444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>48.811</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>49.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>49.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>49.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>50.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>50.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>51.012999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>51.38</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51.747</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>52.113999999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>52.481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>52.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>53.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>53.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>53.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>54.316000000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>54.683</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>55.05</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>55.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>55.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>56.151000000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>56.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>56.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>57.252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57.619</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>58.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>58.72</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>59.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>59.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>59.820999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>60.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>60.555</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>60.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>61.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>61.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>62.023000000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>62.39</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>62.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>63.124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>63.491</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>63.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>64.224999999999994</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>64.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>64.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>65.325999999999993</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.692999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>66.06</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>66.427000000000007</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>66.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>67.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>67.528000000000006</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>67.894999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>68.262</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>68.629000000000005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>68.995999999999995</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>69.363</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>69.73</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>70.096999999999994</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>70.463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>70.831000000000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>71.197999999999993</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>71.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>71.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>72.299000000000007</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>72.665999999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>73.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>73.766999999999996</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>74.134</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>74.501000000000005</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>74.867999999999995</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>75.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>75.602000000000004</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>75.968999999999994</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>76.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>76.703000000000003</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>77.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>77.436999999999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>77.804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>78.171000000000006</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>78.537999999999997</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>78.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>79.272000000000006</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>79.638999999999996</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>80.006</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>80.373000000000005</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>80.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>81.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>81.474000000000004</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>81.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>82.207999999999998</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>82.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>82.941999999999993</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>83.308999999999997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>83.676000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>84.043000000000006</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>84.41</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>84.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>85.144000000000005</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>85.510999999999996</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>85.878</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>86.245000000000005</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>86.611999999999995</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>86.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>87.346000000000004</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>87.712999999999994</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>88.08</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>88.447000000000003</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>88.813999999999993</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>89.180999999999997</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>89.548000000000002</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>89.915000000000006</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>90.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>90.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>91.016000000000005</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>91.382999999999996</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>92.117000000000004</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>92.483999999999995</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>92.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>93.218000000000004</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>93.584999999999994</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>93.951999999999998</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>94.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>94.686000000000007</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>95.052999999999997</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>95.42</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>95.787000000000006</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>96.153999999999996</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>96.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>96.888000000000005</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>97.254999999999995</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>97.622</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>97.989000000000004</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>98.355999999999995</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>98.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>99.456999999999994</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>99.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>100.191</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>100.55800000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>100.925</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>101.292</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>101.65900000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>102.026</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>102.393</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>102.76</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>103.127</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>103.494</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>103.861</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>104.22799999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>104.595</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>104.962</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>105.32899999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>105.696</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>106.063</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>106.43</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>106.797</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>107.164</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>107.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>107.898</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>108.265</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>108.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>108.999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>109.366</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>109.733</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>110.1</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>110.467</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>110.834</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>111.20099999999999</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>111.568</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>111.935</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>112.30200000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>112.669</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>113.036</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>113.40300000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>113.77</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>114.137</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>114.504</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>114.871</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>115.238</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>115.605</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>115.97199999999999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>116.339</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>116.706</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>117.07299999999999</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>117.44</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>117.807</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>118.17400000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>118.541</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>118.908</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>119.27500000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>119.642</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>120.009</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>120.376</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>120.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>121.11</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>121.477</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>121.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>122.211</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>122.578</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>122.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>123.312</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>123.679</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>124.04600000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>124.413</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>124.78</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>125.14700000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>125.514</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>125.881</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>126.248</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>126.61499999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>126.982</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>127.349</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>127.71599999999999</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>128.083</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>128.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>128.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>129.184</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>129.55099999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>129.91800000000001</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>130.285</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>130.65199999999999</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>131.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>131.386</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>131.75299999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>132.12</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>132.48699999999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>132.85400000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>133.221</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>133.58799999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>133.95500000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>134.322</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>134.68899999999999</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>135.05600000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>135.423</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>135.79</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>136.15700000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>136.524</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>136.89099999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>137.25800000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>137.625</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>137.99199999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>138.35900000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>138.726</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>139.09299999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>139.46</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>139.827</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>140.19399999999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>140.56100000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>140.928</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>141.29499999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>141.66200000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>142.029</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>142.39599999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>142.76300000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>143.13</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>143.49700000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>143.864</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>144.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>144.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>144.965</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>145.33199999999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>145.69900000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>146.066</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>146.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>146.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>147.167</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>147.53399999999999</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>147.90100000000001</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>148.268</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>148.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>149.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>149.369</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>149.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>150.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>150.47</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>150.83699999999999</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>151.20400000000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>151.571</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>151.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>152.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>152.672</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>153.03899999999999</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>153.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>153.773</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>154.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>154.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>154.874</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>155.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>155.608</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>155.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>156.34200000000001</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>156.709</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>157.07599999999999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>157.44300000000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>157.81</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>158.17699999999999</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>158.54400000000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>158.911</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>159.27799999999999</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>159.64500000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>160.012</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>160.37899999999999</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>160.74600000000001</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>161.113</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>161.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>161.84700000000001</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>162.214</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>162.58099999999999</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>162.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>163.315</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>163.68199999999999</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>164.04900000000001</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>164.416</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>164.78299999999999</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>165.15</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>165.517</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>165.88399999999999</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>166.251</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>166.61799999999999</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>166.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>167.352</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>167.71899999999999</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>168.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>168.453</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>168.82</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>169.18700000000001</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>169.554</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>169.92099999999999</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>170.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>170.655</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>171.02199999999999</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>171.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>171.756</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>172.12299999999999</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>172.49</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>172.857</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>173.22399999999999</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>173.59100000000001</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>173.958</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>174.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>174.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>175.059</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>175.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>175.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>176.16</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>176.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>176.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>177.261</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>177.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>177.995</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>178.36199999999999</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>178.72900000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>179.096</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>179.46299999999999</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>179.83</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>180.197</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>180.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>180.93100000000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>181.298</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>181.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>182.03200000000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>182.399</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>182.76599999999999</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>183.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>183.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>184.23400000000001</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>184.601</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>184.96799999999999</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>185.33500000000001</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>185.702</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>186.06899999999999</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>186.43600000000001</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>186.803</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>187.17</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>187.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>187.904</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>188.27099999999999</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>188.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>189.005</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>189.37200000000001</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>189.739</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>190.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>190.47300000000001</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>190.84</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>191.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>191.57400000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>191.941</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>192.30799999999999</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>192.67500000000001</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>193.042</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>193.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>193.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>194.143</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>194.51</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>194.87700000000001</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>195.244</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>195.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>195.97800000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>196.345</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>196.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>197.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>197.446</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>197.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>198.18</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>198.547</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>198.91399999999999</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>199.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>199.648</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>200.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>200.38200000000001</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>200.749</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>201.11600000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>201.483</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>201.85</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>202.21700000000001</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>202.584</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>202.95099999999999</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>203.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>203.685</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>204.05199999999999</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>204.41900000000001</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>204.786</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>205.15299999999999</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>205.52</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>205.887</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>206.25399999999999</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>206.62100000000001</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>206.988</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>207.35499999999999</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>207.72200000000001</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>208.089</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>208.45599999999999</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>208.82300000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>209.19</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>209.55699999999999</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>209.92400000000001</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>210.291</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>210.65799999999999</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>211.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>211.392</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>211.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>212.126</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>212.49299999999999</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>212.86</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>213.227</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>213.59399999999999</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>213.96100000000001</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>214.328</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>214.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>215.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>215.429</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>215.79599999999999</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>216.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>216.53</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>216.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>217.26400000000001</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>217.631</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>217.99799999999999</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>218.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>218.732</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>219.09899999999999</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>219.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>219.833</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>220.2</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>220.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>220.934</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>221.30099999999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>221.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>222.035</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>222.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>222.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>223.136</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>223.50299999999999</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>223.87</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>224.23699999999999</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>224.60400000000001</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>224.971</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>225.33799999999999</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>225.70500000000001</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>226.072</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>226.43899999999999</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>226.80600000000001</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>227.173</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>227.54</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>227.90700000000001</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>228.274</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>228.64099999999999</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>229.00800000000001</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>229.375</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>229.74199999999999</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>230.10900000000001</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>230.476</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>230.84299999999999</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>231.21</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>231.577</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>231.94399999999999</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>232.31100000000001</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>232.678</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>233.04499999999999</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>233.41200000000001</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>233.779</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>234.14599999999999</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>234.51300000000001</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>234.88</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>235.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>235.614</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>235.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>236.34800000000001</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>236.715</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>237.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>237.44900000000001</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>237.816</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>238.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>238.55</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>238.917</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>239.28399999999999</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>239.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>240.018</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>240.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>240.75200000000001</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>241.119</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>241.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>241.85300000000001</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>242.22</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>242.58699999999999</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>242.95400000000001</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>243.321</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>243.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>244.05500000000001</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>244.422</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>244.78899999999999</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>245.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>245.523</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>245.89</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>246.25700000000001</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>246.624</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>246.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>247.358</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>247.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>248.09200000000001</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>248.459</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>248.82599999999999</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>249.19300000000001</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>249.56</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>249.92699999999999</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>250.29400000000001</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>250.661</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>251.02799999999999</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>251.39500000000001</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>251.762</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>252.12899999999999</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>252.49600000000001</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>252.863</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>253.23</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>253.59700000000001</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>253.964</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>254.33099999999999</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>254.69800000000001</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>255.065</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>255.43199999999999</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>255.79900000000001</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>256.166</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>256.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>256.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>257.267</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>257.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>258.00099999999998</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>258.36799999999999</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>258.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>259.10199999999998</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>259.46899999999999</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>259.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>260.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>260.57</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>260.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>261.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>261.67099999999999</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>262.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>262.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>262.77199999999999</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>263.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>263.50599999999997</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>263.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>264.24</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>264.60700000000003</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>264.97399999999999</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>265.34100000000001</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>265.70800000000003</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>266.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>266.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>266.80900000000003</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>267.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>267.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>267.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>268.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>268.64400000000001</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>269.01100000000002</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>269.37799999999999</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>269.745</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>270.11200000000002</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>270.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>270.846</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>271.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>271.58</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>271.947</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>272.31400000000002</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>272.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>273.048</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>273.41500000000002</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>273.78199999999998</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>274.149</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>274.51600000000002</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>274.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>275.25</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>275.61700000000002</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>275.98399999999998</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>276.351</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>276.71800000000002</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>277.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>277.452</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>277.81900000000002</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>278.18599999999998</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>278.553</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>278.92</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>279.28699999999998</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>279.654</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>280.02100000000002</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>280.38799999999998</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>280.755</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>281.12200000000001</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>281.48899999999998</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>281.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>282.22300000000001</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>282.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>282.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>283.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>283.69099999999997</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>284.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>284.42500000000001</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>284.79199999999997</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>285.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>285.52600000000001</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>285.89299999999997</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>286.26</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>286.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>286.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>287.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>287.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>288.09500000000003</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>288.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>288.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>289.19600000000003</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>289.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>289.93</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>290.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>290.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>291.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>291.39800000000002</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>291.76499999999999</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>292.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>292.49900000000002</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>292.86599999999999</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>293.233</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>293.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>293.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>294.334</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>294.70100000000002</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>295.06799999999998</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>295.435</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>295.80200000000002</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>296.16899999999998</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>296.536</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>296.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>297.27</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>297.637</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>298.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>298.37099999999998</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>298.738</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>299.10500000000002</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>299.47199999999998</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>299.839</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>300.20600000000002</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>300.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>300.94</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>301.30700000000002</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>301.67399999999998</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>302.041</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>302.40800000000002</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>302.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>303.142</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>303.50900000000001</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>303.87599999999998</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>304.24299999999999</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>304.61</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>304.97699999999998</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>305.34399999999999</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>305.71100000000001</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>306.07799999999997</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>306.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>306.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>307.17899999999997</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>307.54599999999999</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>307.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>308.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>308.64699999999999</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>309.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>309.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>309.74799999999999</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>310.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>310.48200000000003</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>310.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>311.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>311.58300000000003</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>311.95</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>312.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>312.68400000000003</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>313.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>313.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>313.78500000000003</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>314.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>314.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>314.88600000000002</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>315.25299999999999</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>315.62</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>315.98700000000002</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>316.35399999999998</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>316.721</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>317.08800000000002</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>317.45499999999998</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>317.822</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>318.18900000000002</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>318.55599999999998</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>318.923</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>319.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>319.65699999999998</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>320.024</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>320.39100000000002</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>320.75799999999998</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>321.125</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>321.49200000000002</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>321.85899999999998</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>322.226</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>322.59300000000002</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>322.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>323.327</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>323.69400000000002</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>324.06099999999998</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>324.428</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>324.79500000000002</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>325.16199999999998</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>325.529</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>325.89600000000002</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>326.26299999999998</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>326.63</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>326.99700000000001</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>327.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>327.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>328.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>328.46499999999997</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>328.83199999999999</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>329.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>329.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>329.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>330.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>331.03399999999999</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>331.40100000000001</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>331.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>332.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>332.50200000000001</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>332.86900000000003</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>333.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>333.60300000000001</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>333.97</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>334.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>334.70400000000001</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>335.07100000000003</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>335.43799999999999</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>335.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>336.17200000000003</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>336.53899999999999</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>336.90600000000001</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>337.27300000000002</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>337.64</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>338.00700000000001</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>338.37400000000002</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>338.74099999999999</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>339.108</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>339.47500000000002</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>339.84199999999998</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>340.209</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>340.57600000000002</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>340.94299999999998</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>341.31</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>341.67700000000002</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>342.04399999999998</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>342.411</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>342.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>343.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>343.512</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>343.87900000000002</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>344.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>344.613</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>344.98</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>345.34699999999998</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>345.714</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>346.08100000000002</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>346.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>346.815</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>347.18200000000002</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>347.54899999999998</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>347.916</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>348.28300000000002</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>348.65</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>349.017</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>349.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>349.75099999999998</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>350.11799999999999</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>350.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>350.85199999999998</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>351.21899999999999</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>351.58600000000001</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>351.95299999999997</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>352.32</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>352.68700000000001</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>353.05399999999997</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>353.42099999999999</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>353.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>354.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>354.52199999999999</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>354.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>355.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>355.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>355.99</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>356.35700000000003</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>356.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>357.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>357.45800000000003</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>357.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>358.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>358.55900000000003</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>358.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>359.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>359.66</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>360.02699999999999</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>360.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>360.76100000000002</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>361.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>361.495</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>361.86200000000002</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>362.22899999999998</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>362.596</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>362.96300000000002</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>363.33</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>363.697</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>364.06400000000002</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>364.43099999999998</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>364.798</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>365.16500000000002</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>365.53199999999998</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>365.899</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>366.26600000000002</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>366.63299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>367.36700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>367.73399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>368.101</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>368.46800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>368.83499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>369.202</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>369.56900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>369.93599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>370.303</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>370.67</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>371.03699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>371.404</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>371.77100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>372.13799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>372.505</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>372.87200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>373.23899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>373.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>373.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>374.34</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>374.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>375.07400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>375.44099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>375.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>376.17500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>376.54199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>376.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>377.27600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>377.64299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>378.01</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>378.37700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>378.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>379.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>379.47800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>379.84500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>380.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>380.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>380.94600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>381.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>381.68</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>382.04700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>382.41399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>382.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>383.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>383.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>383.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>384.24900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>384.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>384.983</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>385.35</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>385.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>386.084</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>386.45100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>386.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>387.185</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>387.55200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>387.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>388.286</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>388.65300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>389.02</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>389.387</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>389.75400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>390.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>390.488</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>390.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>391.22199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>391.589</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>391.95600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>392.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>392.69</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>393.05700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>393.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>393.791</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>394.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>394.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>394.892</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>395.25900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>395.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>395.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>396.36</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>396.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>397.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>397.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>397.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>398.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>398.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>398.92899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>399.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>399.66300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>400.03</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>400.39699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>400.76400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>401.13099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>401.49799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>401.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>402.23200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>402.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>402.96600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>403.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>403.7</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>404.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>404.43400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>404.80099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>405.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>405.53500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>405.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>406.26900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>406.63600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>407.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>407.37</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>407.73700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>408.10399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>408.471</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>408.83800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>409.20499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>409.572</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>409.93900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>410.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>410.673</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>411.04</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>411.40699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>411.774</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>412.14100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>412.50799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>412.875</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>413.24200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>413.60899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>413.976</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>414.34300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>414.71</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>415.077</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>415.44400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>415.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>416.178</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>416.54500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>416.91199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>417.279</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>417.64600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>418.01299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>418.38</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>418.74700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>419.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>419.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>419.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>420.21499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>420.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>420.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>421.31599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>421.68299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>422.05</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>422.41699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>422.78399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>423.15100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>423.51799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>423.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>424.25200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>424.61900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>424.98599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>425.35300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>425.72</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>426.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>426.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>426.82100000000003</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>427.18799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>427.55500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>427.92200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>428.28899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>428.65600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>429.02300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>429.39</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>429.75700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>430.12400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>430.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>430.858</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>431.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>431.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>431.959</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>432.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>432.69299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>433.06</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>433.42700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>433.79399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>434.161</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>434.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>434.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>435.262</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>435.62900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>435.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>436.363</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>436.73</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>437.09699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>437.464</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>437.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>438.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>438.565</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>438.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>439.29899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>439.666</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>440.03300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>440.4</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>440.767</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>441.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>441.50099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>441.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>442.23500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>442.60199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>442.96899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>443.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>443.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>444.07</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>444.43700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>444.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>445.17099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>445.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>445.90499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>446.27199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>446.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>447.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>447.37299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>447.74</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>448.10700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>448.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>448.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>449.20800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>449.57499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>449.94200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>450.30900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>450.67599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>451.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>451.41</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>451.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>452.14400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>452.51100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>452.87799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>453.245</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>453.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>453.97899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>454.346</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>454.71300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>455.08</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>455.447</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>455.81400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>456.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>456.548</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>456.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>457.28199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>457.649</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>458.01600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>458.38299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>458.75</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>459.11700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>459.48399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>459.851</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>460.21800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>460.58499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>460.952</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>461.31900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>461.68599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>462.053</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>462.42</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>462.78699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>463.154</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>463.52100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>463.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>464.255</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>464.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>464.98899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>465.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>465.72300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>466.09</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>466.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>466.82400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>467.19099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>467.55799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>467.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>468.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>468.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>469.02600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>469.39299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>469.76</c:v>
+                </c:pt>
+                <c:pt idx="1281">
+                  <c:v>470.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1282">
+                  <c:v>470.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1283">
+                  <c:v>470.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1284">
+                  <c:v>471.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1285">
+                  <c:v>471.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1286">
+                  <c:v>471.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1287">
+                  <c:v>472.32900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1288">
+                  <c:v>472.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1289">
+                  <c:v>473.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1290">
+                  <c:v>473.43</c:v>
+                </c:pt>
+                <c:pt idx="1291">
+                  <c:v>473.79700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1292">
+                  <c:v>474.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1293">
+                  <c:v>474.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1294">
+                  <c:v>474.89800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1295">
+                  <c:v>475.26499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1296">
+                  <c:v>475.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1297">
+                  <c:v>475.99900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1298">
+                  <c:v>476.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1299">
+                  <c:v>476.733</c:v>
+                </c:pt>
+                <c:pt idx="1300">
+                  <c:v>477.1</c:v>
+                </c:pt>
+                <c:pt idx="1301">
+                  <c:v>477.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1302">
+                  <c:v>477.834</c:v>
+                </c:pt>
+                <c:pt idx="1303">
+                  <c:v>478.20100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1304">
+                  <c:v>478.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1305">
+                  <c:v>478.935</c:v>
+                </c:pt>
+                <c:pt idx="1306">
+                  <c:v>479.30200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1307">
+                  <c:v>479.66899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1308">
+                  <c:v>480.036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'sim4'!$B$2:$B$1310</c:f>
@@ -20815,11 +28684,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="628937216"/>
-        <c:axId val="628064832"/>
+        <c:axId val="607854592"/>
+        <c:axId val="10694016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="628937216"/>
+        <c:axId val="607854592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20853,7 +28722,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="628064832"/>
+        <c:crossAx val="10694016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20861,7 +28730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="628064832"/>
+        <c:axId val="10694016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20891,7 +28760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="628937216"/>
+        <c:crossAx val="607854592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21345,7 +29214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -37106,7 +44975,7 @@
   <dimension ref="A1:B1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47601,8 +55470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
